--- a/DOM_Banner/output/dept0713/Juanita L Merchant_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Juanita L Merchant_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Epidemiology and Biostatistics, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, Arizona, USA; Department of Epidemiology and Biostatistics, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, Arizona, USA; Department of Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA; Division of Gastroenterology and Hepatology, Department of Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA; Division of Gastroenterology and Hepatology, Department of Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA; Department of Epidemiology and Biostatistics, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319332910</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Helicobacter pylori treatment knowledge, access and barriers: A cross‐sectional study</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Helicobacter</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/hel.12954</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36748455</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/hel.12954</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4377564478</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>High-fat diet plus HNF1A variant promotes polyps by activating β-catenin in early-onset colorectal cancer</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>JCI insight</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Society for Clinical Investigation</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1172/jci.insight.167163</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37219942</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1172/jci.insight.167163</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,42 +621,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sherene Loi, Jeffrey Settleman, Johanna A. Joyce, C S Pramesh, René Bernards, Jia Fan, Juanita L. Merchant, Javid Moslehi, William R. Sellers</t>
+          <t>Uloma B. Elvis‐Offiah, Suzann Duan, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4365446428</t>
+          <t>Department of Physiology, College of Medicine University of Arizona  Tucson Arizona 85724 USA; Department of Medicine, Division of Gastroenterology and Hepatology, Arizona Comprehensive Cancer Center University of Arizona  Tucson Arizona 85724 USA; Department of Physiology, College of Medicine University of Arizona  Tucson Arizona 85724 USA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The next big questions in cancer research</t>
+          <t>https://openalex.org/W4366516887</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>MENIN‐mediated regulation of gastrin gene expression and its role in gastrinoma development</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cell</t>
+          <t>2023-04-20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cell Press</t>
+          <t>The FASEB Journal</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.cell.2023.01.037</t>
+          <t>Wiley</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1096/fj.202201809rr</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37059060</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.cell.2023.01.037</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37078545</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1096/fj.202201809rr</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,42 +708,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Uloma B. Elvis‐Offiah, Suzann Duan, Juanita L. Merchant</t>
+          <t>Sherene Loi, Jeffrey Settleman, Johanna A. Joyce, C S Pramesh, René Bernards, Jia Fan, Juanita L. Merchant, Javid Moslehi, William R. Sellers</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4366516887</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MENIN‐mediated regulation of gastrin gene expression and its role in gastrinoma development</t>
+          <t>https://openalex.org/W4365446428</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-04-20</t>
+          <t>The next big questions in cancer research</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The FASEB Journal</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Cell</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1096/fj.202201809rr</t>
+          <t>Cell Press</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.cell.2023.01.037</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37078545</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1096/fj.202201809rr</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37059060</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.cell.2023.01.037</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Medicine-Gastroenterology, University of Arizona, Tucson, AZ, United States; Department of Medicine-Gastroenterology, University of Arizona, Tucson, AZ, United States; Department of Medicine-Gastroenterology, University of Arizona, Tucson, AZ, United States; Department of Medicine-Gastroenterology, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379141955</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Schlafen4+-MDSC in Helicobacter-induced gastric metaplasia reveals role for GTPases</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-06-02</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Frontiers in Immunology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fimmu.2023.1139391</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37334372</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fimmu.2023.1139391</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Digestive Diseases Branch, National Institute of Diabetes and Digestive and Kidney Diseases, National Institutes of Health, Bethesda, Maryland; Digestive Diseases Branch, National Institute of Diabetes and Digestive and Kidney Diseases, National Institutes of Health, Bethesda, Maryland; Digestive Diseases Branch, National Institute of Diabetes and Digestive and Kidney Diseases, National Institutes of Health, Bethesda, Maryland; Flow Cytometry Core Facility, National Heart, Lung, and Blood Institute, National Institutes of Health, Bethesda, Maryland; Flow Cytometry Core Facility, National Heart, Lung, and Blood Institute, National Institutes of Health, Bethesda, Maryland; Department of Internal Medicine-Gastroenterology, University of Arizona, Tucson, Arizona; Digestive Diseases Branch, National Institute of Diabetes and Digestive and Kidney Diseases, National Institutes of Health, Bethesda, Maryland</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312018720</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Tissue- and cell-specific properties of enterochromaffin cells affect the fate of tumorigenesis toward nonendocrine adenocarcinoma of the small intestine</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>American Journal of Physiology-gastrointestinal and Liver Physiology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>American Physiological Society</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1152/ajpgi.00205.2022</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36537709</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1152/ajpgi.00205.2022</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Department of Medicine, College of Medicine Tucson, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Wyant College of Optical Sciences, University of Arizona, Tucson, AZ, United States; Department of Medicine, College of Medicine Tucson, University of Arizona, Tucson, AZ, United States; Department of Medicine, College of Medicine Tucson, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Wyant College of Optical Sciences, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313561497</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Design, fabrication, and preclinical testing of a miniaturized, multispectral, chip-on-tip, imaging probe for intraluminal fluorescence imaging of the gastrointestinal tract</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-01-05</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Frontiers in photonics</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphot.2022.1067651</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37691859</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphot.2022.1067651</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,24 +1061,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona, College of Medicine (United States); The Univ. of Arizona, College of Medicine (United States); The Univ. of Texas Health Science Ctr. at Houston (United States); The Univ. of Texas Health Science Ctr. at Houston (United States); The Univ. of Texas Health Science Ctr. at Houston (United States); The Univ. of Texas M.D. Anderson Cancer Ctr. (United States); The Univ. of Texas M.D. Anderson Cancer Ctr. (United States); ; The Univ. of Arizona, College of Medicine (United States); Univ. of Arizona, College of Medicine (United States); Wyant College of Optical Sciences, The Univ. of Arizona (United States)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318194444</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Combined multiphoton microscopy and somatostatin receptor type 2 imaging of pancreatic neuroendocrine tumors</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1046,14 +1086,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1117/12.2648113</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1117/12.2648113</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,39 +1148,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ;; University of Arizona, Tucson, AZ;; University of Michigan, Ann Arbor, MI;</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318904063</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Evidence for diet-gene interaction in early-onset colorectal cancer.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.4_suppl.182</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.4_suppl.182</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>University of Arizon, Wynt College of Opticl Sciences, 1630 E. University Blvd, Tucson, AZ, 85721, USA; University of Arizona, Department of Biomedical Engineering, 1127 E. James E. Rogers Way, Tucson, AZ, 85721, USA;  University of Arizona College of Medicine;;  University of Arizona;;  University of Texas Health Science Center at Houston;;  The University of Texas Health Science Center at Houston;;  The University of Texas Health Science Center at Houston;; Th Univrsity of Txas MD Andrson Cancr Cntr, 1515 Holcomb Blvd, Houston, TX, 77030, USA; Th Univrsity of Txas MD Andrson Cancr Cntr, 1515 Holcomb Blvd, Houston, TX, 77030, USA; National Cancer Institute, 1050 Boyles St, Frederick, MD, 21702, USA;  University of Arizona;; University of Arizon, Wynt College of Opticl Sciences, 1630 E. University Blvd, Tucson, AZ, 85721, USA; University of Arizona, Department of Biomedical Engineering, 1127 E. James E. Rogers Way, Tucson, AZ, 85721, USA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319230172</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Combined multiphoton microscopy and somatostatin receptor type 2 imaging of pancreatic neuroendocrine tumors</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.03.526958</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by-nd</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36778307</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.03.526958</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,24 +1322,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Univ. of Arizona (United States); Univ. of Arizona (United States); Univ. of Arizona (United States); Univ. of Arizona (United States); Univ. of Arizona (United States); Univ. of Arizona (United States)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4327555683</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Mueller matrix polarization imaging of gastrinoma shows promise for tumor localization</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-03-16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1292,14 +1347,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1117/12.2649407</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1117/12.2649407</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,24 +1409,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); Wyant College of Optical Sciences, The Univ. of Arizona (United States)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4327565000</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Spatial and spectral optimization of two-photon imaging data for optimal label-free texture-based tissue classification models (Conference Presentation)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-03-16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1374,14 +1434,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1117/12.2650142</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1389,35 +1449,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1117/12.2650142</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,27 +1491,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361823659</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Data from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>https://openalex.org/W4382937459</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figure S1 from Clinically defined mutations in MEN1 alter its tumor-suppressive function through increased menin turnover</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1456,50 +1521,55 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6508548.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.23618595.v1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6508548.v1</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23618595.v1</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,27 +1578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361876205</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Supplemental Data from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>https://openalex.org/W4382937494</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figure S1 from Clinically defined mutations in MEN1 alter its tumor-suppressive function through increased menin turnover</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1538,50 +1608,55 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412904</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.23618595</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22412904</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23618595</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,27 +1665,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361877637</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>https://openalex.org/W4382937500</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from Clinically defined mutations in MEN1 alter its tumor-suppressive function through increased menin turnover</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1620,50 +1695,55 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412895</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6724332.v1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22412895</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.c.6724332.v1</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,80 +1752,85 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Travis W. Sawyer, Benjamin Witten, Heyu Song, Tobias Else, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361972068</t>
+          <t>University of Arizona College of Medicine; University of Arizona Wyant College of Optical Sciences; University of Arizona College of Medicine; University of Arizona College of Medicine; University of Michigan; University of Arizona College of Medicine</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>https://openalex.org/W4382981434</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Spatial profiling of neuro-immune interactions in gastroenteropancreatic NETs</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-02</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412901</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1101/2023.07.01.547336</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>da</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22412901</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2023.07.01.547336</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,27 +1839,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361972203</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>https://openalex.org/W4382987962</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1784,50 +1869,55 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412892</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6724332</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22412892</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.c.6724332</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1836,80 +1926,85 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361972243</t>
+          <t>University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona Wyant College of Optical Sciences, Tucson, AZ, United States; Midwestern University, Downers Grove, IL, United States; University of Michigan-Ann Arbor, Ann Arbor, MI, United States; University of Michigan-Ann Arbor, Ann Arbor, MI, United States; University of Arizona College of Medicine, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Supplemental Table 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>https://openalex.org/W4382988237</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Clinically Defined Mutations in &lt;i&gt;MEN1&lt;/i&gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cancer research communications</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412889</t>
+          <t>American Association for Cancer Research</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.crc-22-0522</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412889</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37492626</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.crc-22-0522</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1918,80 +2013,85 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Rilwan Balogun, Lin Ding, Palash Mallick, Mark Borgstrom, Hemanth K. Gavini, Rolando J. Leal, Sasha Taleban, Radhika Babaria, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421572</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Supplemental Table 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>https://openalex.org/W4383420486</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Mo1251 A TOLL-LIKE RECEPTOR 9 (TLR9) SINGLE NUCLEOTIDE POLYMORPHISM MAY INCREASE COMPLICATIONS TO HELICOBACTER PYLORI INFECTION</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gastroenterology</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412889.v1</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22412889.v1</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2000,27 +2100,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421583</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Supplemental Data from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>https://openalex.org/W4385198192</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>FIGURE 2 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2030,50 +2130,55 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412904.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.23736811.v1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22412904.v1</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736811.v1</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2082,27 +2187,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421601</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>https://openalex.org/W4385198200</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2112,50 +2217,55 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412895.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6724332.v2</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22412895.v1</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.c.6724332.v2</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2164,27 +2274,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421606</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>https://openalex.org/W4385198227</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>FIGURE 3 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2194,50 +2304,55 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412892.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.23736808</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K23" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22412892.v1</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736808</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2246,27 +2361,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421654</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>https://openalex.org/W4385198277</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>FIGURE 6 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2276,50 +2391,55 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412901.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.23736799.v1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>da</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22412901.v1</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736799.v1</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2333,22 +2453,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382937459</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Clinically defined mutations in MEN1 alter its tumor-suppressive function through increased menin turnover</t>
+          <t>https://openalex.org/W4385198278</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>FIGURE 7 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2358,50 +2478,55 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23618595.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.23736796.v1</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23618595.v1</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736796.v1</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2415,22 +2540,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382937494</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Clinically defined mutations in MEN1 alter its tumor-suppressive function through increased menin turnover</t>
+          <t>https://openalex.org/W4385198370</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>FIGURE 2 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2440,50 +2565,55 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23618595</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.23736811</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K26" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23618595</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736811</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2497,22 +2627,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382937500</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Data from Clinically defined mutations in MEN1 alter its tumor-suppressive function through increased menin turnover</t>
+          <t>https://openalex.org/W4385198371</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>FIGURE 6 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2522,50 +2652,55 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6724332.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.23736799</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6724332.v1</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736799</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2574,80 +2709,85 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Suzann Duan, Travis W. Sawyer, Benjamin Witten, Heyu Song, Tobias Else, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382981434</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Spatial profiling of neuro-immune interactions in gastroenteropancreatic NETs</t>
+          <t>https://openalex.org/W4385198401</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023-07-02</t>
+          <t>Supplementary Figure S1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.07.01.547336</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.23736793.v1</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1101/2023.07.01.547336</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736793.v1</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2661,24 +2801,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382987962</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Data from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4385198410</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>FIGURE 4 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2686,50 +2826,55 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6724332</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.23736805</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6724332</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736805</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2743,75 +2888,80 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382988237</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Clinically Defined Mutations in &lt;i&gt;MEN1&lt;/i&gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4385198411</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>FIGURE 5 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Cancer research communications</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>American Association for Cancer Research</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.crc-22-0522</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.23736802</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37492626</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.crc-22-0522</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736802</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2820,80 +2970,85 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lin Ding, Sulaiman Sheriff, Ricky Sontz, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383420193</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>582 SINGLE CELL RNA SEQUENCING OF IMMUNE CELLS DURING HELICOBACTER-INDUCED GASTRIC METAPLASIA DEMONSTRATES A CORRELATION BETWEEN SCHLAFEN4+-MDSC AND GTPASE-DEPENDENT PATHWAY</t>
+          <t>https://openalex.org/W4385198430</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>FIGURE 7 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gastroenterology</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)01223-4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.23736796</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)01223-4</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736796</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2902,80 +3057,85 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Rilwan Balogun, Lin Ding, Palash Mallick, Mark Borgstrom, Hemanth K. Gavini, Rolando J. Leal, Sasha Taleban, Radhika Babaria, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383420486</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mo1251 A TOLL-LIKE RECEPTOR 9 (TLR9) SINGLE NUCLEOTIDE POLYMORPHISM MAY INCREASE COMPLICATIONS TO HELICOBACTER PYLORI INFECTION</t>
+          <t>https://openalex.org/W4385198586</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>FIGURE 5 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Gastroenterology</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.23736802.v1</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736802.v1</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2989,24 +3149,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198192</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FIGURE 2 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4385198587</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>FIGURE 3 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3014,50 +3174,55 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736811.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.23736808.v1</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736811.v1</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736808.v1</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3071,24 +3236,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198200</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Data from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4385198718</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>Supplementary Figure S1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3096,50 +3261,55 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6724332.v2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.23736793</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6724332.v2</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736793</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3153,24 +3323,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198227</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FIGURE 3 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4385213901</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>FIGURE 1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3178,50 +3348,55 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736808</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.23736814</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736808</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736814</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3235,24 +3410,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198277</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FIGURE 6 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4385215985</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>FIGURE 1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3260,50 +3435,55 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736799.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.23736814.v1</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736799.v1</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736814.v1</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3317,24 +3497,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198278</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FIGURE 7 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4385222914</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>FIGURE 4 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3342,50 +3522,55 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736796.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.23736805.v1</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736796.v1</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.23736805.v1</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3394,80 +3579,85 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Noelle Daigle, Suzann Duan, Heyu Song, Natzem Lima, Ricky Sontz, Juanita L. Merchant, Travis W. Sawyer</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198370</t>
+          <t>University of Arizona, Wyant College of Optical Sciences, Tucson, Arizona, United States; University of Arizona, College of Medicine, Tucson, Arizona, United States; University of Arizona, College of Medicine, Tucson, Arizona, United States; University of Arizona, Wyant College of Optical Sciences, Tucson, Arizona, United States; University of Arizona, College of Medicine, Tucson, Arizona, United States; University of Arizona, College of Medicine, Tucson, Arizona, United States; University of Arizona, Wyant College of Optical Sciences, Tucson, Arizona, United States (United States)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FIGURE 2 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4386698768</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>Wide field-of-view fluorescence imaging for organ-level lineage tracing of rare intestinal stem cell populations</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Biomedical Optics</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736811</t>
+          <t>SPIE</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1117/1.jbo.28.9.096004</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736811</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37711357</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1117/1.jbo.28.9.096004</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3476,80 +3666,85 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Thomas G. Knapp, Suzann Duan, Juanita L. Merchant, Travis W. Sawyer</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198371</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FIGURE 6 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4389884414</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>Label-free phenotyping of duodenal neuroendocrine tumors using tissue autofluorescence microscopy and digital spatial profiling</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Endocrine Abstracts</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736799</t>
+          <t>Bioscientifica</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1530/endoabs.98.b19</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736799</t>
-        </is>
-      </c>
       <c r="P39" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1530/endoabs.98.b19</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3558,80 +3753,85 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Suzann Duan, Travis W. Sawyer, Benjamin Witten, Heyu Song, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198401</t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4389884450</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>Spatial profiling of neuro-immune interactions in gastroenteropancreatic NETs</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Endocrine Abstracts</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736793.v1</t>
+          <t>Bioscientifica</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1530/endoabs.98.b1</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736793.v1</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1530/endoabs.98.b1</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3640,80 +3840,85 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Noelle Daigle, Suzann Duan, Juanita L. Merchant, Travis W. Sawyer</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198410</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FIGURE 4 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4389894286</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>Machine learning algorithm to classify multiphoton microscopy images of pancreatic neuroendocrine tumors</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Endocrine Abstracts</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736805</t>
+          <t>Bioscientifica</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1530/endoabs.98.b9</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736805</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1530/endoabs.98.b9</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3722,27 +3927,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198411</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FIGURE 5 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4361823659</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>Data from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3752,50 +3957,55 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736802</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6508548.v1</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736802</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6508548.v1</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3804,27 +4014,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198430</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FIGURE 7 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4361876205</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>Supplemental Data from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3834,50 +4044,55 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736796</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22412904</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736796</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22412904</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3886,27 +4101,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198586</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FIGURE 5 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4361877637</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>Supplemental Figure 2 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3916,50 +4131,55 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736802.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22412895</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736802.v1</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22412895</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3968,27 +4188,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198587</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FIGURE 3 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4361972068</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>Supplemental Figure 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3998,50 +4218,55 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736808.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22412901</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736808.v1</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22412901</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4050,27 +4275,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198718</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4361972203</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>Supplemental Figure 3 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4080,50 +4305,55 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736793</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22412892</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736793</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22412892</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4132,27 +4362,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385213901</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FIGURE 1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4361972243</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>Supplemental Table 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4162,50 +4392,55 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736814</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22412889</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736814</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22412889</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4214,27 +4449,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385215985</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FIGURE 1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4362421572</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>Supplemental Table 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4244,50 +4479,55 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736814.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22412889.v1</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736814.v1</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22412889.v1</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4296,27 +4536,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385222914</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>FIGURE 4 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>https://openalex.org/W4362421583</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>Supplemental Data from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4326,50 +4566,55 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736805.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22412904.v1</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.23736805.v1</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22412904.v1</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4378,80 +4623,85 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Elise S. Hibdon, Theresa M. Keeley, Juanita L. Merchant, Linda C. Samuelson</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386623720</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>The bHLH Transcription Factor ASCL1 Promotes Differentiation of Endocrine Cells in the Stomach and is Regulated by Notch Signaling</t>
+          <t>https://openalex.org/W4362421601</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>Supplemental Figure 2 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>American Journal of Physiology-gastrointestinal and Liver Physiology</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>American Physiological Society</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/ajpgi.00043.2023</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22412895.v1</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37698169</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/ajpgi.00043.2023</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22412895.v1</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4460,80 +4710,85 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Noelle Daigle, Suzann Duan, Heyu Song, Natzem Lima, Ricky Sontz, Juanita L. Merchant, Travis W. Sawyer</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386698768</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wide field-of-view fluorescence imaging for organ-level lineage tracing of rare intestinal stem cell populations</t>
+          <t>https://openalex.org/W4362421606</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>Supplemental Figure 3 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Journal of Biomedical Optics</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SPIE</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/1.jbo.28.9.096004</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22412892.v1</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37711357</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/1.jbo.28.9.096004</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22412892.v1</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4542,80 +4797,85 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Laura B. Chopp, Jinfang Zhu, Yayi Gao, Jia Nie, Jatinder Singh, Parimal Kumar, Kelly Z. Young, Shil Patel, Caiyi Li, Mariah Balmaceno-Criss, Melanie S. Vacchio, Michael M. Wang, Ferenc Livák, Juanita L. Merchant, Lie Wang, Michael C. Kelly, Jinfang Zhu, Rémy Bosselut</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388562649</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Zfp281 and Zfp148 control CD4 &lt;sup&gt;+&lt;/sup&gt; T cell thymic development and T &lt;sub&gt;H&lt;/sub&gt; 2 functions</t>
+          <t>https://openalex.org/W4362421654</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>Supplemental Figure 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Science immunology</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>American Association for the Advancement of Science</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1126/sciimmunol.adi9066</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22412901.v1</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37948511</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1126/sciimmunol.adi9066</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22412901.v1</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4624,42 +4884,42 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Thomas G. Knapp, Suzann Duan, Juanita L. Merchant, Travis W. Sawyer</t>
+          <t>Lin Ding, Sulaiman Sheriff, Ricky Sontz, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389884414</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Label-free phenotyping of duodenal neuroendocrine tumors using tissue autofluorescence microscopy and digital spatial profiling</t>
+          <t>https://openalex.org/W4383420193</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>582 SINGLE CELL RNA SEQUENCING OF IMMUNE CELLS DURING HELICOBACTER-INDUCED GASTRIC METAPLASIA DEMONSTRATES A CORRELATION BETWEEN SCHLAFEN4+-MDSC AND GTPASE-DEPENDENT PATHWAY</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Endocrine Abstracts</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bioscientifica</t>
+          <t>Gastroenterology</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1530/endoabs.98.b19</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/s0016-5085(23)01223-4</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4669,35 +4929,40 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N53" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1530/endoabs.98.b19</t>
-        </is>
-      </c>
       <c r="P53" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0016-5085(23)01223-4</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4706,42 +4971,42 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Suzann Duan, Travis W. Sawyer, Benjamin Witten, Heyu Song, Juanita L. Merchant</t>
+          <t>Elise S. Hibdon, Theresa M. Keeley, Juanita L. Merchant, Linda C. Samuelson</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389884450</t>
+          <t>Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, United States; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, United States; Internal Medicine-Gastroenterology, University of Arizona, Tuscan, AZ, United States; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, United States</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Spatial profiling of neuro-immune interactions in gastroenteropancreatic NETs</t>
+          <t>https://openalex.org/W4386623720</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>The bHLH Transcription Factor ASCL1 Promotes Differentiation of Endocrine Cells in the Stomach and is Regulated by Notch Signaling</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Endocrine Abstracts</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bioscientifica</t>
+          <t>American Journal of Physiology-gastrointestinal and Liver Physiology</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1530/endoabs.98.b1</t>
+          <t>American Physiological Society</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1152/ajpgi.00043.2023</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4751,35 +5016,40 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1530/endoabs.98.b1</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37698169</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1152/ajpgi.00043.2023</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4788,42 +5058,42 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Noelle Daigle, Suzann Duan, Juanita L. Merchant, Travis W. Sawyer</t>
+          <t>Laura B. Chopp, Jinfang Zhu, Yayi Gao, Jia Nie, Jatinder Singh, Parimal Kumar, Kelly Z. Young, Shil Patel, Caiyi Li, Mariah Balmaceno-Criss, Melanie S. Vacchio, Michael M. Wang, Ferenc Livák, Juanita L. Merchant, Lie Wang, Michael C. Kelly, Jinfang Zhu, Rémy Bosselut</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389894286</t>
+          <t>Immunology Graduate Group, University of Pennsylvania Medical School, Philadelphia, PA 19104, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Molecular and Cellular Immunoregulation Section, Laboratory of Immune System Biology, National Institute of Allergy and Infectious Diseases, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Single Cell Analysis Facility, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Single Cell Analysis Facility, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; University of Maryland Medical School, Baltimore, MD 21201, USA.; Flow Cytometry Core, Laboratory of Genomic Integrity, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Neurology Service, VA Ann Arbor Healthcare System, Ann Arbor, MI 48105, USA.; Flow Cytometry Core, Laboratory of Genomic Integrity, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Department of Gastroenterology and Hepatology, University of Arizona College of Medicine, Tucson, AZ 85724, USA.; Institute of Immunology, and Bone Marrow Transplantation Center, First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.; Single Cell Analysis Facility, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Molecular and Cellular Immunoregulation Section, Laboratory of Immune System Biology, National Institute of Allergy and Infectious Diseases, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Machine learning algorithm to classify multiphoton microscopy images of pancreatic neuroendocrine tumors</t>
+          <t>https://openalex.org/W4388562649</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>Zfp281 and Zfp148 control CD4 &lt;sup&gt;+&lt;/sup&gt; T cell thymic development and T &lt;sub&gt;H&lt;/sub&gt; 2 functions</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Endocrine Abstracts</t>
+          <t>2023-11-24</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bioscientifica</t>
+          <t>Science immunology</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1530/endoabs.98.b9</t>
+          <t>American Association for the Advancement of Science</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1126/sciimmunol.adi9066</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4833,35 +5103,40 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1530/endoabs.98.b9</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37948511</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1126/sciimmunol.adi9066</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Juanita L Merchant_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Juanita L Merchant_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -534,57 +534,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Heyu Song, Ricky Sontz, Mary Lee Vance, Julia Morris, Sulaiman Sheriff, Songli Zhu, Suzann Duan, Jiping Zeng, Erika Koeppe, Ritu Pandey, Curtis A. Thorne, Elena M. Stoffel, Juanita L. Merchant</t>
+          <t>Sherene Loi, Jeffrey Settleman, Johanna A. Joyce, C S Pramesh, René Bernards, Jia Fan, Juanita L. Merchant, Javid Moslehi, William R. Sellers</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4377564478</t>
+          <t>https://openalex.org/W4365446428</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>High-fat diet plus HNF1A variant promotes polyps by activating β-catenin in early-onset colorectal cancer</t>
+          <t>The next big questions in cancer research</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>JCI insight</t>
+          <t>Cell</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>American Society for Clinical Investigation</t>
+          <t>Cell Press</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1172/jci.insight.167163</t>
+          <t>https://doi.org/10.1016/j.cell.2023.01.037</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37219942</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37059060</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1172/jci.insight.167163</t>
+          <t>https://doi.org/10.1016/j.cell.2023.01.037</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -708,57 +708,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sherene Loi, Jeffrey Settleman, Johanna A. Joyce, C S Pramesh, René Bernards, Jia Fan, Juanita L. Merchant, Javid Moslehi, William R. Sellers</t>
+          <t>Heyu Song, Ricky Sontz, Mary Lee Vance, Julia Morris, Sulaiman Sheriff, Songli Zhu, Suzann Duan, Jiping Zeng, Erika Koeppe, Ritu Pandey, Curtis A. Thorne, Elena M. Stoffel, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t>Department of Medicine, Division of Gastroenterology and Hepatology, University of Arizona, Tucson, United States of America; Department of Medicine, Division of Gastroenterology and Hepatology, University of Arizona, Tucson, United States of America; Department of Medicine, Division of Gastroenterology and Hepatology, University of Arizona, Tucson, United States of America; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, United States of America; Department of Medicine, Division of Gastroenterology and Hepatology, University of Arizona, Tucson, United States of America; Human Biology Division, Fred Hutchinson Cancer Center, Seattle, United States of America; Department of Medicine, Division of Gastroenterology and Hepatology, University of Arizona, Tucson, United States of America; Department of Urology, University of Arizona, Tucson, United States of America; Michigan Medicine Cancer Genetics Clinic, University of Michigan, Ann Arbor, United States of America; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, United States of America; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, United States of America; Department of Internal Medicine, University of Michigan, Ann Arbor, United States of America; Department of Medicine, Division of Gastroenterology and Hepatology, The University of Arizona, Tucson, United States of America</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4365446428</t>
+          <t>https://openalex.org/W4377564478</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The next big questions in cancer research</t>
+          <t>High-fat diet plus HNF1A variant promotes polyps by activating β-catenin in early-onset colorectal cancer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cell</t>
+          <t>JCI insight</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cell Press</t>
+          <t>American Society for Clinical Investigation</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.cell.2023.01.037</t>
+          <t>https://doi.org/10.1172/jci.insight.167163</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37059060</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37219942</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.cell.2023.01.037</t>
+          <t>https://doi.org/10.1172/jci.insight.167163</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -882,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Yoshitatsu Sei, Jianying Feng, Xilin Zhao, Pradeep Dagur, J. Philip McCoy, Juanita L. Merchant, Stephen A. Wank</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Digestive Diseases Branch, National Institute of Diabetes and Digestive and Kidney Diseases, National Institutes of Health, Bethesda, Maryland; Digestive Diseases Branch, National Institute of Diabetes and Digestive and Kidney Diseases, National Institutes of Health, Bethesda, Maryland; Digestive Diseases Branch, National Institute of Diabetes and Digestive and Kidney Diseases, National Institutes of Health, Bethesda, Maryland; Flow Cytometry Core Facility, National Heart, Lung, and Blood Institute, National Institutes of Health, Bethesda, Maryland; Flow Cytometry Core Facility, National Heart, Lung, and Blood Institute, National Institutes of Health, Bethesda, Maryland; Department of Internal Medicine-Gastroenterology, University of Arizona, Tucson, Arizona; Digestive Diseases Branch, National Institute of Diabetes and Digestive and Kidney Diseases, National Institutes of Health, Bethesda, Maryland</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4312018720</t>
+          <t>https://openalex.org/W4382987962</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tissue- and cell-specific properties of enterochromaffin cells affect the fate of tumorigenesis toward nonendocrine adenocarcinoma of the small intestine</t>
+          <t>Data from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>American Journal of Physiology-gastrointestinal and Liver Physiology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>American Physiological Society</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/ajpgi.00205.2022</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6724332</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -927,12 +927,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36537709</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/ajpgi.00205.2022</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6724332</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,57 +969,57 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bridget Slomka, Suzann Duan, Thomas G. Knapp, Natzem Lima, Ricky Sontz, Juanita L. Merchant, Travis W. Sawyer</t>
+          <t>Elise S. Hibdon, Theresa M. Keeley, Juanita L. Merchant, Linda C. Samuelson</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Department of Medicine, College of Medicine Tucson, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Wyant College of Optical Sciences, University of Arizona, Tucson, AZ, United States; Department of Medicine, College of Medicine Tucson, University of Arizona, Tucson, AZ, United States; Department of Medicine, College of Medicine Tucson, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Wyant College of Optical Sciences, University of Arizona, Tucson, AZ, United States</t>
+          <t>Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, United States; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, United States; Internal Medicine-Gastroenterology, University of Arizona, Tuscan, AZ, United States; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, United States</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4313561497</t>
+          <t>https://openalex.org/W4386623720</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Design, fabrication, and preclinical testing of a miniaturized, multispectral, chip-on-tip, imaging probe for intraluminal fluorescence imaging of the gastrointestinal tract</t>
+          <t>The bHLH Transcription Factor ASCL1 Promotes Differentiation of Endocrine Cells in the Stomach and is Regulated by Notch Signaling</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Frontiers in photonics</t>
+          <t>American Journal of Physiology-gastrointestinal and Liver Physiology</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>American Physiological Society</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fphot.2022.1067651</t>
+          <t>https://doi.org/10.1152/ajpgi.00043.2023</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37691859</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37698169</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fphot.2022.1067651</t>
+          <t>https://doi.org/10.1152/ajpgi.00043.2023</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1056,42 +1056,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Noelle Daigle, Thomas G. Knapp, Suzann Duan, David Jones, Ali Azhdarinia, Sukhen C. Ghosh, Solmaz AghaAmiri, Naruhiko Ikoma, Jeannelyn S. Estrella, Martin J. Schnermann, Juanita L. Merchant, Travis W. Sawyer</t>
+          <t>Yoshitatsu Sei, Jianying Feng, Xilin Zhao, Pradeep Dagur, J. Philip McCoy, Juanita L. Merchant, Stephen A. Wank</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona, College of Medicine (United States); The Univ. of Arizona, College of Medicine (United States); The Univ. of Texas Health Science Ctr. at Houston (United States); The Univ. of Texas Health Science Ctr. at Houston (United States); The Univ. of Texas Health Science Ctr. at Houston (United States); The Univ. of Texas M.D. Anderson Cancer Ctr. (United States); The Univ. of Texas M.D. Anderson Cancer Ctr. (United States); ; The Univ. of Arizona, College of Medicine (United States); Univ. of Arizona, College of Medicine (United States); Wyant College of Optical Sciences, The Univ. of Arizona (United States)</t>
+          <t>Digestive Diseases Branch, National Institute of Diabetes and Digestive and Kidney Diseases, National Institutes of Health, Bethesda, Maryland; Digestive Diseases Branch, National Institute of Diabetes and Digestive and Kidney Diseases, National Institutes of Health, Bethesda, Maryland; Digestive Diseases Branch, National Institute of Diabetes and Digestive and Kidney Diseases, National Institutes of Health, Bethesda, Maryland; Flow Cytometry Core Facility, National Heart, Lung, and Blood Institute, National Institutes of Health, Bethesda, Maryland; Flow Cytometry Core Facility, National Heart, Lung, and Blood Institute, National Institutes of Health, Bethesda, Maryland; Department of Internal Medicine-Gastroenterology, University of Arizona, Tucson, Arizona; Digestive Diseases Branch, National Institute of Diabetes and Digestive and Kidney Diseases, National Institutes of Health, Bethesda, Maryland</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318194444</t>
+          <t>https://openalex.org/W4312018720</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Combined multiphoton microscopy and somatostatin receptor type 2 imaging of pancreatic neuroendocrine tumors</t>
+          <t>Tissue- and cell-specific properties of enterochromaffin cells affect the fate of tumorigenesis toward nonendocrine adenocarcinoma of the small intestine</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>American Journal of Physiology-gastrointestinal and Liver Physiology</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>American Physiological Society</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2648113</t>
+          <t>https://doi.org/10.1152/ajpgi.00205.2022</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36537709</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2648113</t>
+          <t>https://doi.org/10.1152/ajpgi.00205.2022</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,57 +1143,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Juanita L. Merchant, Heyu Song, Elena M. Stoffel</t>
+          <t>Bridget Slomka, Suzann Duan, Thomas G. Knapp, Natzem Lima, Ricky Sontz, Juanita L. Merchant, Travis W. Sawyer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, AZ;; University of Arizona, Tucson, AZ;; University of Michigan, Ann Arbor, MI;</t>
+          <t>Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Department of Medicine, College of Medicine Tucson, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Wyant College of Optical Sciences, University of Arizona, Tucson, AZ, United States; Department of Medicine, College of Medicine Tucson, University of Arizona, Tucson, AZ, United States; Department of Medicine, College of Medicine Tucson, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Wyant College of Optical Sciences, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318904063</t>
+          <t>https://openalex.org/W4313561497</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Evidence for diet-gene interaction in early-onset colorectal cancer.</t>
+          <t>Design, fabrication, and preclinical testing of a miniaturized, multispectral, chip-on-tip, imaging probe for intraluminal fluorescence imaging of the gastrointestinal tract</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>Frontiers in photonics</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.182</t>
+          <t>https://doi.org/10.3389/fphot.2022.1067651</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37691859</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.182</t>
+          <t>https://doi.org/10.3389/fphot.2022.1067651</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>University of Arizon, Wynt College of Opticl Sciences, 1630 E. University Blvd, Tucson, AZ, 85721, USA; University of Arizona, Department of Biomedical Engineering, 1127 E. James E. Rogers Way, Tucson, AZ, 85721, USA;  University of Arizona College of Medicine;;  University of Arizona;;  University of Texas Health Science Center at Houston;;  The University of Texas Health Science Center at Houston;;  The University of Texas Health Science Center at Houston;; Th Univrsity of Txas MD Andrson Cancr Cntr, 1515 Holcomb Blvd, Houston, TX, 77030, USA; Th Univrsity of Txas MD Andrson Cancr Cntr, 1515 Holcomb Blvd, Houston, TX, 77030, USA; National Cancer Institute, 1050 Boyles St, Frederick, MD, 21702, USA;  University of Arizona;; University of Arizon, Wynt College of Opticl Sciences, 1630 E. University Blvd, Tucson, AZ, 85721, USA; University of Arizona, Department of Biomedical Engineering, 1127 E. James E. Rogers Way, Tucson, AZ, 85721, USA</t>
+          <t>The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona, College of Medicine (United States); The Univ. of Arizona, College of Medicine (United States); The Univ. of Texas Health Science Ctr. at Houston (United States); The Univ. of Texas Health Science Ctr. at Houston (United States); The Univ. of Texas Health Science Ctr. at Houston (United States); The Univ. of Texas M.D. Anderson Cancer Ctr. (United States); The Univ. of Texas M.D. Anderson Cancer Ctr. (United States); ; The Univ. of Arizona, College of Medicine (United States); Univ. of Arizona, College of Medicine (United States); Wyant College of Optical Sciences, The Univ. of Arizona (United States)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4319230172</t>
+          <t>https://openalex.org/W4318194444</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1250,32 +1250,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-02-03</t>
+          <t>2023-03-06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.02.03.526958</t>
+          <t>https://doi.org/10.1117/12.2648113</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>cc-by-nd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36778307</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.02.03.526958</t>
+          <t>https://doi.org/10.1117/12.2648113</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Julianne Chania Setiadi, Justina Bonaventura, Thomas G. Knapp, Suzann Duan, Juanita L. Merchant, Travis W. Sawyer</t>
+          <t>Juanita L. Merchant, Heyu Song, Elena M. Stoffel</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Univ. of Arizona (United States); Univ. of Arizona (United States); Univ. of Arizona (United States); Univ. of Arizona (United States); Univ. of Arizona (United States); Univ. of Arizona (United States)</t>
+          <t>University of Arizona, Tucson, AZ;; University of Arizona, Tucson, AZ;; University of Michigan, Ann Arbor, MI;</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4327555683</t>
+          <t>https://openalex.org/W4318904063</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mueller matrix polarization imaging of gastrinoma shows promise for tumor localization</t>
+          <t>Evidence for diet-gene interaction in early-onset colorectal cancer.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-03-16</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2649407</t>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.182</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2649407</t>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.182</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,57 +1404,57 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Thomas G. Knapp, Suzann Duan, Juanita L. Merchant, Travis W. Sawyer</t>
+          <t>Noelle Daigle, Thomas G. Knapp, Suzann Duan, David Jones, Ali Azhdarinia, Sukhen C. Ghosh, Solmaz AghaAmiri, Naruhiko Ikoma, Jeannelyn S. Estrella, Martin J. Schnermann, Juanita L. Merchant, Travis W. Sawyer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); Wyant College of Optical Sciences, The Univ. of Arizona (United States)</t>
+          <t>University of Arizon, Wynt College of Opticl Sciences, 1630 E. University Blvd, Tucson, AZ, 85721, USA; University of Arizona, Department of Biomedical Engineering, 1127 E. James E. Rogers Way, Tucson, AZ, 85721, USA;  University of Arizona College of Medicine;;  University of Arizona;;  University of Texas Health Science Center at Houston;;  The University of Texas Health Science Center at Houston;;  The University of Texas Health Science Center at Houston;; Th Univrsity of Txas MD Andrson Cancr Cntr, 1515 Holcomb Blvd, Houston, TX, 77030, USA; Th Univrsity of Txas MD Andrson Cancr Cntr, 1515 Holcomb Blvd, Houston, TX, 77030, USA; National Cancer Institute, 1050 Boyles St, Frederick, MD, 21702, USA;  University of Arizona;; University of Arizon, Wynt College of Opticl Sciences, 1630 E. University Blvd, Tucson, AZ, 85721, USA; University of Arizona, Department of Biomedical Engineering, 1127 E. James E. Rogers Way, Tucson, AZ, 85721, USA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4327565000</t>
+          <t>https://openalex.org/W4319230172</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Spatial and spectral optimization of two-photon imaging data for optimal label-free texture-based tissue classification models (Conference Presentation)</t>
+          <t>Combined multiphoton microscopy and somatostatin receptor type 2 imaging of pancreatic neuroendocrine tumors</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-03-16</t>
+          <t>2023-02-03</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2650142</t>
+          <t>https://doi.org/10.1101/2023.02.03.526958</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36778307</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2650142</t>
+          <t>https://doi.org/10.1101/2023.02.03.526958</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,27 +1491,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Julianne Chania Setiadi, Justina Bonaventura, Thomas G. Knapp, Suzann Duan, Juanita L. Merchant, Travis W. Sawyer</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t>Univ. of Arizona (United States); Univ. of Arizona (United States); Univ. of Arizona (United States); Univ. of Arizona (United States); Univ. of Arizona (United States); Univ. of Arizona (United States)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382937459</t>
+          <t>https://openalex.org/W4327555683</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Clinically defined mutations in MEN1 alter its tumor-suppressive function through increased menin turnover</t>
+          <t>Mueller matrix polarization imaging of gastrinoma shows promise for tumor localization</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-03-16</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1526,22 +1526,22 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23618595.v1</t>
+          <t>https://doi.org/10.1117/12.2649407</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23618595.v1</t>
+          <t>https://doi.org/10.1117/12.2649407</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,27 +1578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Thomas G. Knapp, Suzann Duan, Juanita L. Merchant, Travis W. Sawyer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t>The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); Wyant College of Optical Sciences, The Univ. of Arizona (United States)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382937494</t>
+          <t>https://openalex.org/W4327565000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Clinically defined mutations in MEN1 alter its tumor-suppressive function through increased menin turnover</t>
+          <t>Spatial and spectral optimization of two-photon imaging data for optimal label-free texture-based tissue classification models (Conference Presentation)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-03-16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1613,22 +1613,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23618595</t>
+          <t>https://doi.org/10.1117/12.2650142</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23618595</t>
+          <t>https://doi.org/10.1117/12.2650142</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1665,27 +1665,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Győrffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382937500</t>
+          <t>https://openalex.org/W4361823659</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Data from Clinically defined mutations in MEN1 alter its tumor-suppressive function through increased menin turnover</t>
+          <t>Data from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6724332.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6508548.v1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6724332.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6508548.v1</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,47 +1752,47 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Suzann Duan, Travis W. Sawyer, Benjamin Witten, Heyu Song, Tobias Else, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Győrffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>University of Arizona College of Medicine; University of Arizona Wyant College of Optical Sciences; University of Arizona College of Medicine; University of Arizona College of Medicine; University of Michigan; University of Arizona College of Medicine</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382981434</t>
+          <t>https://openalex.org/W4361876205</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Spatial profiling of neuro-immune interactions in gastroenteropancreatic NETs</t>
+          <t>Supplemental Data from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-07-02</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.07.01.547336</t>
+          <t>https://doi.org/10.1158/0008-5472.22412904</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.07.01.547336</t>
+          <t>https://doi.org/10.1158/0008-5472.22412904</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,27 +1839,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Győrffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382987962</t>
+          <t>https://openalex.org/W4361877637</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Data from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Supplemental Figure 2 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6724332</t>
+          <t>https://doi.org/10.1158/0008-5472.22412895</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6724332</t>
+          <t>https://doi.org/10.1158/0008-5472.22412895</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1926,42 +1926,42 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Győrffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona Wyant College of Optical Sciences, Tucson, AZ, United States; Midwestern University, Downers Grove, IL, United States; University of Michigan-Ann Arbor, Ann Arbor, MI, United States; University of Michigan-Ann Arbor, Ann Arbor, MI, United States; University of Arizona College of Medicine, Tucson, AZ, United States</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382988237</t>
+          <t>https://openalex.org/W4361972068</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Clinically Defined Mutations in &lt;i&gt;MEN1&lt;/i&gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Supplemental Figure 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cancer research communications</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>American Association for Cancer Research</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.crc-22-0522</t>
+          <t>https://doi.org/10.1158/0008-5472.22412901</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1971,17 +1971,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>da</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37492626</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.crc-22-0522</t>
+          <t>https://doi.org/10.1158/0008-5472.22412901</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2013,57 +2013,57 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rilwan Balogun, Lin Ding, Palash Mallick, Mark Borgstrom, Hemanth K. Gavini, Rolando J. Leal, Sasha Taleban, Radhika Babaria, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Győrffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383420486</t>
+          <t>https://openalex.org/W4361972203</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mo1251 A TOLL-LIKE RECEPTOR 9 (TLR9) SINGLE NUCLEOTIDE POLYMORPHISM MAY INCREASE COMPLICATIONS TO HELICOBACTER PYLORI INFECTION</t>
+          <t>Supplemental Figure 3 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gastroenterology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
+          <t>https://doi.org/10.1158/0008-5472.22412892</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
+          <t>https://doi.org/10.1158/0008-5472.22412892</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2100,27 +2100,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Győrffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198192</t>
+          <t>https://openalex.org/W4361972243</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FIGURE 2 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Supplemental Table 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736811.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22412889</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736811.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22412889</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2187,27 +2187,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Győrffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198200</t>
+          <t>https://openalex.org/W4362421572</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Data from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Supplemental Table 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6724332.v2</t>
+          <t>https://doi.org/10.1158/0008-5472.22412889.v1</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6724332.v2</t>
+          <t>https://doi.org/10.1158/0008-5472.22412889.v1</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2274,27 +2274,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Győrffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198227</t>
+          <t>https://openalex.org/W4362421583</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FIGURE 3 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Supplemental Data from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736808</t>
+          <t>https://doi.org/10.1158/0008-5472.22412904.v1</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736808</t>
+          <t>https://doi.org/10.1158/0008-5472.22412904.v1</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2361,27 +2361,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Győrffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198277</t>
+          <t>https://openalex.org/W4362421601</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FIGURE 6 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Supplemental Figure 2 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736799.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22412895.v1</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736799.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22412895.v1</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2448,27 +2448,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Győrffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198278</t>
+          <t>https://openalex.org/W4362421606</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FIGURE 7 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Supplemental Figure 3 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736796.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22412892.v1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736796.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22412892.v1</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2535,27 +2535,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Győrffy, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198370</t>
+          <t>https://openalex.org/W4362421654</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FIGURE 2 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Supplemental Figure 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736811</t>
+          <t>https://doi.org/10.1158/0008-5472.22412901.v1</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>da</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736811</t>
+          <t>https://doi.org/10.1158/0008-5472.22412901.v1</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2632,17 +2632,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198371</t>
+          <t>https://openalex.org/W4382937459</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FIGURE 6 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Supplementary Figure S1 from Clinically defined mutations in MEN1 alter its tumor-suppressive function through increased menin turnover</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736799</t>
+          <t>https://doi.org/10.1158/2767-9764.23618595.v1</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736799</t>
+          <t>https://doi.org/10.1158/2767-9764.23618595.v1</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2719,17 +2719,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198401</t>
+          <t>https://openalex.org/W4382937494</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Supplementary Figure S1 from Clinically defined mutations in MEN1 alter its tumor-suppressive function through increased menin turnover</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736793.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.23618595</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736793.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.23618595</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2806,17 +2806,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198410</t>
+          <t>https://openalex.org/W4382937500</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FIGURE 4 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Data from Clinically defined mutations in MEN1 alter its tumor-suppressive function through increased menin turnover</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736805</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6724332.v1</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736805</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6724332.v1</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2883,47 +2883,47 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Suzann Duan, Travis W. Sawyer, Benjamin Witten, Heyu Song, Tobias Else, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t>University of Arizona College of Medicine; University of Arizona Wyant College of Optical Sciences; University of Arizona College of Medicine; University of Arizona College of Medicine; University of Michigan; University of Arizona College of Medicine</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198411</t>
+          <t>https://openalex.org/W4382981434</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FIGURE 5 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Spatial profiling of neuro-immune interactions in gastroenteropancreatic NETs</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-07-02</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736802</t>
+          <t>https://doi.org/10.1101/2023.07.01.547336</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736802</t>
+          <t>https://doi.org/10.1101/2023.07.01.547336</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2975,17 +2975,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t>University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona Wyant College of Optical Sciences, Tucson, AZ, United States; Midwestern University, Downers Grove, IL, United States; University of Michigan-Ann Arbor, Ann Arbor, MI, United States; University of Michigan-Ann Arbor, Ann Arbor, MI, United States; University of Arizona College of Medicine, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198430</t>
+          <t>https://openalex.org/W4382988237</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FIGURE 7 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Clinically Defined Mutations in &lt;i&gt;MEN1&lt;/i&gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2995,17 +2995,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cancer research communications</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>American Association for Cancer Research</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736796</t>
+          <t>https://doi.org/10.1158/2767-9764.crc-22-0522</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3040,12 +3040,12 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37492626</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736796</t>
+          <t>https://doi.org/10.1158/2767-9764.crc-22-0522</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3057,57 +3057,57 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Lin Ding, Sulaiman Sheriff, Ricky Sontz, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198586</t>
+          <t>https://openalex.org/W4383420193</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FIGURE 5 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>582 SINGLE CELL RNA SEQUENCING OF IMMUNE CELLS DURING HELICOBACTER-INDUCED GASTRIC METAPLASIA DEMONSTRATES A CORRELATION BETWEEN SCHLAFEN4+-MDSC AND GTPASE-DEPENDENT PATHWAY</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gastroenterology</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736802.v1</t>
+          <t>https://doi.org/10.1016/s0016-5085(23)01223-4</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736802.v1</t>
+          <t>https://doi.org/10.1016/s0016-5085(23)01223-4</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3144,7 +3144,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Rilwan Balogun, Lin Ding, Palash Mallick, Mark Borgstrom, Hemanth K. Gavini, Rolando J. Leal, Sasha Taleban, Radhika Babaria, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3154,47 +3154,47 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198587</t>
+          <t>https://openalex.org/W4383420486</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FIGURE 3 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Mo1251 A TOLL-LIKE RECEPTOR 9 (TLR9) SINGLE NUCLEOTIDE POLYMORPHISM MAY INCREASE COMPLICATIONS TO HELICOBACTER PYLORI INFECTION</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gastroenterology</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736808.v1</t>
+          <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736808.v1</t>
+          <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -3241,12 +3241,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385198718</t>
+          <t>https://openalex.org/W4385198192</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>FIGURE 2 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736793</t>
+          <t>https://doi.org/10.1158/2767-9764.23736811.v1</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736793</t>
+          <t>https://doi.org/10.1158/2767-9764.23736811.v1</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3328,12 +3328,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385213901</t>
+          <t>https://openalex.org/W4385198200</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FIGURE 1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>Data from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3353,12 +3353,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736814</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6724332.v2</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736814</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6724332.v2</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385215985</t>
+          <t>https://openalex.org/W4385198227</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FIGURE 1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>FIGURE 3 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736814.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.23736808</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736814.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.23736808</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3502,12 +3502,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385222914</t>
+          <t>https://openalex.org/W4385198277</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FIGURE 4 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
+          <t>FIGURE 6 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736805.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.23736799.v1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.23736805.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.23736799.v1</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3579,42 +3579,42 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Noelle Daigle, Suzann Duan, Heyu Song, Natzem Lima, Ricky Sontz, Juanita L. Merchant, Travis W. Sawyer</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>University of Arizona, Wyant College of Optical Sciences, Tucson, Arizona, United States; University of Arizona, College of Medicine, Tucson, Arizona, United States; University of Arizona, College of Medicine, Tucson, Arizona, United States; University of Arizona, Wyant College of Optical Sciences, Tucson, Arizona, United States; University of Arizona, College of Medicine, Tucson, Arizona, United States; University of Arizona, College of Medicine, Tucson, Arizona, United States; University of Arizona, Wyant College of Optical Sciences, Tucson, Arizona, United States (United States)</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386698768</t>
+          <t>https://openalex.org/W4385198278</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wide field-of-view fluorescence imaging for organ-level lineage tracing of rare intestinal stem cell populations</t>
+          <t>FIGURE 7 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Journal of Biomedical Optics</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SPIE</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/1.jbo.28.9.096004</t>
+          <t>https://doi.org/10.1158/2767-9764.23736796.v1</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3624,12 +3624,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3649,12 +3649,12 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37711357</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/1.jbo.28.9.096004</t>
+          <t>https://doi.org/10.1158/2767-9764.23736796.v1</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3666,57 +3666,57 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Thomas G. Knapp, Suzann Duan, Juanita L. Merchant, Travis W. Sawyer</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389884414</t>
+          <t>https://openalex.org/W4385198370</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Label-free phenotyping of duodenal neuroendocrine tumors using tissue autofluorescence microscopy and digital spatial profiling</t>
+          <t>FIGURE 2 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Endocrine Abstracts</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Bioscientifica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1530/endoabs.98.b19</t>
+          <t>https://doi.org/10.1158/2767-9764.23736811</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1530/endoabs.98.b19</t>
+          <t>https://doi.org/10.1158/2767-9764.23736811</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -3753,57 +3753,57 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Suzann Duan, Travis W. Sawyer, Benjamin Witten, Heyu Song, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389884450</t>
+          <t>https://openalex.org/W4385198371</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Spatial profiling of neuro-immune interactions in gastroenteropancreatic NETs</t>
+          <t>FIGURE 6 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Endocrine Abstracts</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bioscientifica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1530/endoabs.98.b1</t>
+          <t>https://doi.org/10.1158/2767-9764.23736799</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1530/endoabs.98.b1</t>
+          <t>https://doi.org/10.1158/2767-9764.23736799</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -3840,57 +3840,57 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Noelle Daigle, Suzann Duan, Juanita L. Merchant, Travis W. Sawyer</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389894286</t>
+          <t>https://openalex.org/W4385198401</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Machine learning algorithm to classify multiphoton microscopy images of pancreatic neuroendocrine tumors</t>
+          <t>Supplementary Figure S1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Endocrine Abstracts</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Bioscientifica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1530/endoabs.98.b9</t>
+          <t>https://doi.org/10.1158/2767-9764.23736793.v1</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1530/endoabs.98.b9</t>
+          <t>https://doi.org/10.1158/2767-9764.23736793.v1</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -3927,27 +3927,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361823659</t>
+          <t>https://openalex.org/W4385198410</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Data from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>FIGURE 4 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3962,12 +3962,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6508548.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.23736805</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6508548.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.23736805</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -4014,27 +4014,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361876205</t>
+          <t>https://openalex.org/W4385198411</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Supplemental Data from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>FIGURE 5 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412904</t>
+          <t>https://doi.org/10.1158/2767-9764.23736802</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412904</t>
+          <t>https://doi.org/10.1158/2767-9764.23736802</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -4101,27 +4101,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361877637</t>
+          <t>https://openalex.org/W4385198430</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>FIGURE 7 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412895</t>
+          <t>https://doi.org/10.1158/2767-9764.23736796</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412895</t>
+          <t>https://doi.org/10.1158/2767-9764.23736796</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -4188,27 +4188,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361972068</t>
+          <t>https://openalex.org/W4385198586</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>FIGURE 5 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412901</t>
+          <t>https://doi.org/10.1158/2767-9764.23736802.v1</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>da</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412901</t>
+          <t>https://doi.org/10.1158/2767-9764.23736802.v1</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -4275,27 +4275,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361972203</t>
+          <t>https://openalex.org/W4385198587</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>FIGURE 3 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412892</t>
+          <t>https://doi.org/10.1158/2767-9764.23736808.v1</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412892</t>
+          <t>https://doi.org/10.1158/2767-9764.23736808.v1</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -4362,27 +4362,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361972243</t>
+          <t>https://openalex.org/W4385198718</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Supplemental Table 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>Supplementary Figure S1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412889</t>
+          <t>https://doi.org/10.1158/2767-9764.23736793</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412889</t>
+          <t>https://doi.org/10.1158/2767-9764.23736793</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4449,27 +4449,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421572</t>
+          <t>https://openalex.org/W4385213901</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Supplemental Table 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>FIGURE 1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412889.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.23736814</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412889.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.23736814</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -4536,27 +4536,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421583</t>
+          <t>https://openalex.org/W4385215985</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Supplemental Data from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>FIGURE 1 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412904.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.23736814.v1</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412904.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.23736814.v1</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -4623,27 +4623,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Benjamin Witten, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421601</t>
+          <t>https://openalex.org/W4385222914</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>FIGURE 4 from Clinically Defined Mutations in &amp;lt;i&amp;gt;MEN1&amp;lt;/i&amp;gt; Alter Its Tumor-suppressive Function Through Increased Menin Turnover</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412895.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.23736805.v1</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412895.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.23736805.v1</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -4710,42 +4710,42 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Noelle Daigle, Suzann Duan, Heyu Song, Natzem Lima, Ricky Sontz, Juanita L. Merchant, Travis W. Sawyer</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>University of Arizona, Wyant College of Optical Sciences, Tucson, Arizona, United States; University of Arizona, College of Medicine, Tucson, Arizona, United States; University of Arizona, College of Medicine, Tucson, Arizona, United States; University of Arizona, Wyant College of Optical Sciences, Tucson, Arizona, United States; University of Arizona, College of Medicine, Tucson, Arizona, United States; University of Arizona, College of Medicine, Tucson, Arizona, United States; University of Arizona, Wyant College of Optical Sciences, Tucson, Arizona, United States (United States)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421606</t>
+          <t>https://openalex.org/W4386698768</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>Wide field-of-view fluorescence imaging for organ-level lineage tracing of rare intestinal stem cell populations</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Biomedical Optics</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>SPIE</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412892.v1</t>
+          <t>https://doi.org/10.1117/1.jbo.28.9.096004</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4755,12 +4755,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4780,12 +4780,12 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37711357</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412892.v1</t>
+          <t>https://doi.org/10.1117/1.jbo.28.9.096004</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -4797,62 +4797,62 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Györffy, Juanita L. Merchant</t>
+          <t>Laura B. Chopp, Jinfang Zhu, Yayi Gao, Jia Nie, Jatinder Singh, Parimal Kumar, Kelly Z. Young, Shil Patel, Caiyi Li, Mariah Balmaceno-Criss, Melanie S. Vacchio, Michael M. Wang, Ferenc Livák, Juanita L. Merchant, Lie Wang, Michael C. Kelly, Jinfang Zhu, Rémy Bosselut</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Immunology Graduate Group, University of Pennsylvania Medical School, Philadelphia, PA 19104, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Molecular and Cellular Immunoregulation Section, Laboratory of Immune System Biology, National Institute of Allergy and Infectious Diseases, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Single Cell Analysis Facility, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Single Cell Analysis Facility, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; University of Maryland Medical School, Baltimore, MD 21201, USA.; Flow Cytometry Core, Laboratory of Genomic Integrity, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Neurology Service, VA Ann Arbor Healthcare System, Ann Arbor, MI 48105, USA.; Flow Cytometry Core, Laboratory of Genomic Integrity, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Department of Gastroenterology and Hepatology, University of Arizona College of Medicine, Tucson, AZ 85724, USA.; Institute of Immunology, and Bone Marrow Transplantation Center, First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.; Single Cell Analysis Facility, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Molecular and Cellular Immunoregulation Section, Laboratory of Immune System Biology, National Institute of Allergy and Infectious Diseases, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421654</t>
+          <t>https://openalex.org/W4388562649</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+          <t>Zfp281 and Zfp148 control CD4 &lt;sup&gt;+&lt;/sup&gt; T cell thymic development and T &lt;sub&gt;H&lt;/sub&gt; 2 functions</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-11-24</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Science immunology</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>American Association for the Advancement of Science</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412901.v1</t>
+          <t>https://doi.org/10.1126/sciimmunol.adi9066</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>da</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4867,12 +4867,12 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37948511</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22412901.v1</t>
+          <t>https://doi.org/10.1126/sciimmunol.adi9066</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -4884,7 +4884,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Lin Ding, Sulaiman Sheriff, Ricky Sontz, Juanita L. Merchant</t>
+          <t>Thomas G. Knapp, Suzann Duan, Juanita L. Merchant, Travis W. Sawyer</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4894,32 +4894,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383420193</t>
+          <t>https://openalex.org/W4389884414</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>582 SINGLE CELL RNA SEQUENCING OF IMMUNE CELLS DURING HELICOBACTER-INDUCED GASTRIC METAPLASIA DEMONSTRATES A CORRELATION BETWEEN SCHLAFEN4+-MDSC AND GTPASE-DEPENDENT PATHWAY</t>
+          <t>Label-free phenotyping of duodenal neuroendocrine tumors using tissue autofluorescence microscopy and digital spatial profiling</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Gastroenterology</t>
+          <t>Endocrine Abstracts</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Bioscientifica</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)01223-4</t>
+          <t>https://doi.org/10.1530/endoabs.98.b19</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)01223-4</t>
+          <t>https://doi.org/10.1530/endoabs.98.b19</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -4971,42 +4971,42 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Elise S. Hibdon, Theresa M. Keeley, Juanita L. Merchant, Linda C. Samuelson</t>
+          <t>Suzann Duan, Travis W. Sawyer, Benjamin Witten, Heyu Song, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, United States; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, United States; Internal Medicine-Gastroenterology, University of Arizona, Tuscan, AZ, United States; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, United States</t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386623720</t>
+          <t>https://openalex.org/W4389884450</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>The bHLH Transcription Factor ASCL1 Promotes Differentiation of Endocrine Cells in the Stomach and is Regulated by Notch Signaling</t>
+          <t>Spatial profiling of neuro-immune interactions in gastroenteropancreatic NETs</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>American Journal of Physiology-gastrointestinal and Liver Physiology</t>
+          <t>Endocrine Abstracts</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>American Physiological Society</t>
+          <t>Bioscientifica</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/ajpgi.00043.2023</t>
+          <t>https://doi.org/10.1530/endoabs.98.b1</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37698169</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/ajpgi.00043.2023</t>
+          <t>https://doi.org/10.1530/endoabs.98.b1</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -5058,42 +5058,42 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Laura B. Chopp, Jinfang Zhu, Yayi Gao, Jia Nie, Jatinder Singh, Parimal Kumar, Kelly Z. Young, Shil Patel, Caiyi Li, Mariah Balmaceno-Criss, Melanie S. Vacchio, Michael M. Wang, Ferenc Livák, Juanita L. Merchant, Lie Wang, Michael C. Kelly, Jinfang Zhu, Rémy Bosselut</t>
+          <t>Noelle Daigle, Suzann Duan, Juanita L. Merchant, Travis W. Sawyer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Immunology Graduate Group, University of Pennsylvania Medical School, Philadelphia, PA 19104, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Molecular and Cellular Immunoregulation Section, Laboratory of Immune System Biology, National Institute of Allergy and Infectious Diseases, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Single Cell Analysis Facility, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Single Cell Analysis Facility, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; University of Maryland Medical School, Baltimore, MD 21201, USA.; Flow Cytometry Core, Laboratory of Genomic Integrity, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Neurology Service, VA Ann Arbor Healthcare System, Ann Arbor, MI 48105, USA.; Flow Cytometry Core, Laboratory of Genomic Integrity, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Department of Gastroenterology and Hepatology, University of Arizona College of Medicine, Tucson, AZ 85724, USA.; Institute of Immunology, and Bone Marrow Transplantation Center, First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.; Single Cell Analysis Facility, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.; Molecular and Cellular Immunoregulation Section, Laboratory of Immune System Biology, National Institute of Allergy and Infectious Diseases, National Institutes of Health, Bethesda, MD 20892, USA.; Laboratory of Immune Cell Biology, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, MD 20892, USA.</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388562649</t>
+          <t>https://openalex.org/W4389894286</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Zfp281 and Zfp148 control CD4 &lt;sup&gt;+&lt;/sup&gt; T cell thymic development and T &lt;sub&gt;H&lt;/sub&gt; 2 functions</t>
+          <t>Machine learning algorithm to classify multiphoton microscopy images of pancreatic neuroendocrine tumors</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Science immunology</t>
+          <t>Endocrine Abstracts</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>American Association for the Advancement of Science</t>
+          <t>Bioscientifica</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1126/sciimmunol.adi9066</t>
+          <t>https://doi.org/10.1530/endoabs.98.b9</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -5128,15 +5128,102 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37948511</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1126/sciimmunol.adi9066</t>
+          <t>https://doi.org/10.1530/endoabs.98.b9</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Bryan E. Essien, Sinju Sundaresan, Ramon Ocadiz-Ruiz, Aaron Chavis, Amy C. Tsao, Arthur J. Tessier, Michael M. Hayes, Amanda Photenhauer, Milena Saqui‐Salces, Anthony J. Kang, Yatrik M. Shah, Balázs Győrffy, Juanita L. Merchant</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4392684781</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Data from Transcription Factor ZBP-89 Drives a Feedforward Loop of β-Catenin Expression in Colorectal Cancer</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6508548</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6508548</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
         <is>
           <t>article</t>
         </is>
